--- a/sources/CPE_Courses.xlsx
+++ b/sources/CPE_Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIPQC\Videos\OOPIntro_Dano\Final-OOP2\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4838E86-9F3F-4182-9B50-34F33FC3B717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C385481-D36B-4BD6-87C2-6A18C1A69E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AA50959-B7E8-463A-BB77-82FF90CA8362}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="195">
   <si>
     <t>Course Name</t>
   </si>
@@ -1016,13 +1016,14 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -1039,7 +1040,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E1" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1058,6 +1059,9 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1066,6 +1070,9 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="K4" t="s">
         <v>140</v>
       </c>
@@ -1098,6 +1105,9 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="K5" t="s">
         <v>180</v>
       </c>
@@ -1130,6 +1140,12 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="K6" t="s">
         <v>147</v>
       </c>
@@ -1162,6 +1178,9 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="K7" t="s">
         <v>154</v>
       </c>
@@ -1194,6 +1213,9 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="K8" t="s">
         <v>168</v>
       </c>
@@ -1223,6 +1245,9 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="K9" t="s">
         <v>174</v>
       </c>
@@ -1284,6 +1309,9 @@
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1292,6 +1320,14 @@
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1300,6 +1336,9 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1308,6 +1347,9 @@
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1317,6 +1359,9 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1325,6 +1370,9 @@
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="N16" s="3"/>
       <c r="P16" s="3"/>
@@ -1336,6 +1384,9 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E17" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="N17" s="3"/>
       <c r="P17" s="3"/>
@@ -1358,6 +1409,9 @@
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E19" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="N19" s="3"/>
       <c r="P19" s="3"/>
@@ -1369,6 +1423,14 @@
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="L20" s="3"/>
       <c r="N20" s="3"/>
       <c r="P20" s="3"/>
@@ -1380,6 +1442,9 @@
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="N21" s="3"/>
       <c r="P21" s="3"/>
@@ -1391,6 +1456,9 @@
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1399,6 +1467,9 @@
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1407,6 +1478,9 @@
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1415,6 +1489,9 @@
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1432,6 +1509,9 @@
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1443,6 +1523,14 @@
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="L28" s="4"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1454,6 +1542,9 @@
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E29" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1465,6 +1556,9 @@
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E30" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -1476,6 +1570,9 @@
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E31" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -1487,6 +1584,9 @@
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="E32" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
@@ -1497,6 +1597,9 @@
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E33" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1514,6 +1617,9 @@
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E35" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1522,6 +1628,13 @@
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="E36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1531,6 +1644,9 @@
       <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="E37" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1540,6 +1656,9 @@
       <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E38" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1549,6 +1668,9 @@
       <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="E39" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1558,6 +1680,9 @@
       <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="E40" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1576,6 +1701,9 @@
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="E42" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1584,6 +1712,13 @@
       <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="E43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -1592,6 +1727,13 @@
       <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1601,6 +1743,13 @@
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1609,6 +1758,9 @@
       <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="E46" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1627,6 +1779,9 @@
       <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="E48" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1636,6 +1791,14 @@
       <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1645,6 +1808,9 @@
       <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E50" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -1654,6 +1820,9 @@
       <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="E51" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1662,6 +1831,9 @@
       <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="E52" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1670,6 +1842,9 @@
       <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E53" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -1678,6 +1853,9 @@
       </c>
       <c r="B54" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">

--- a/sources/CPE_Courses.xlsx
+++ b/sources/CPE_Courses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIPQC\Videos\OOPIntro_Dano\Final-OOP2\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajdan\OneDrive\Documents\GitHub\fixedOOP2\Final-OOP2\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C385481-D36B-4BD6-87C2-6A18C1A69E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C268A-766D-4BE4-BA85-7212A35EEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1AA50959-B7E8-463A-BB77-82FF90CA8362}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
